--- a/data/trans_camb/P31_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P31_3_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,7</t>
+          <t>-14,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-19,8</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,36</t>
+          <t>-36,9</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>8,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,35</t>
+          <t>-1,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-4,82</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-10,78</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-20,16</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-25,38; 8,91</t>
+          <t>-37,29; 8,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-18,35; 15,63</t>
+          <t>-43,11; 4,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 20,38</t>
+          <t>-58,32; -10,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 12,76</t>
+          <t>-10,07; 26,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 11,09</t>
+          <t>-21,27; 16,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 10,14</t>
+          <t>-26,29; 15,26</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; 13,29</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-24,94; 4,43</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-34,84; -3,71</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-11,2%</t>
+          <t>-18,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-25,86%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,67%</t>
+          <t>-48,18%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>12,11%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,47%</t>
+          <t>-2,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,83%</t>
+          <t>-6,63%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-2,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-14,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-27,09%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 14,39</t>
+          <t>-45,48; 12,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,71; 26,25</t>
+          <t>-52,13; 6,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 29,31</t>
+          <t>-71,35; -16,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,57; 17,58</t>
+          <t>-12,08; 44,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,76; 16,29</t>
+          <t>-26,11; 26,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,05; 15,17</t>
+          <t>-32,37; 23,33</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-20,02; 19,86</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-31,0; 6,49</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-44,76; -5,62</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>19,29</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,1</t>
+          <t>13,13</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,98</t>
+          <t>10,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>5,94</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,71</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,35</t>
+          <t>-3,19</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>12,76</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>4,16</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,15</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 31,66</t>
+          <t>-1,06; 54,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 28,84</t>
+          <t>-9,0; 47,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 15,37</t>
+          <t>-11,84; 48,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 11,26</t>
+          <t>-8,41; 20,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 20,31</t>
+          <t>-21,86; 10,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 16,26</t>
+          <t>-17,57; 13,34</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 32,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,17; 23,62</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-9,73; 25,55</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,38%</t>
+          <t>27,11%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>7,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>-7,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>-3,91%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16,73%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>5,46%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 59,95</t>
+          <t>-1,68; 136,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 50,27</t>
+          <t>-10,26; 118,76</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,39; 20,09</t>
+          <t>-13,72; 118,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 14,65</t>
+          <t>-9,52; 28,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 29,43</t>
+          <t>-25,11; 14,8</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 24,36</t>
+          <t>-20,38; 18,22</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 52,68</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; 40,76</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 42,96</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>8,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,86</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,51</t>
+          <t>-3,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>-2,95</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-8,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-5,42</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 19,28</t>
+          <t>-5,67; 24,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 16,54</t>
+          <t>-6,93; 24,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,75; 7,22</t>
+          <t>-15,08; 16,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 4,73</t>
+          <t>-14,32; 5,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 10,21</t>
+          <t>-11,47; 6,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 7,66</t>
+          <t>-18,27; 0,92</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-6,37; 9,91</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,6; 9,67</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-14,46; 3,7</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-2,79%</t>
+          <t>-3,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>-3,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>-8,96%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-6,45%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 26,46</t>
+          <t>-6,71; 37,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 22,46</t>
+          <t>-8,38; 37,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 8,45</t>
+          <t>-18,54; 26,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 5,46</t>
+          <t>-15,45; 5,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 12,71</t>
+          <t>-12,3; 7,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 9,41</t>
+          <t>-19,68; 1,03</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-7,15; 12,53</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-7,36; 12,32</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 4,69</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>13,65</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,32</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,04</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,21</t>
+          <t>-7,67</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>6,58</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-4,48</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,8; 20,05</t>
+          <t>8,01; 31,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,77; 12,92</t>
+          <t>1,0; 25,79</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 13,45</t>
+          <t>-13,48; 15,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 12,33</t>
+          <t>-6,74; 7,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,86; 14,82</t>
+          <t>-6,23; 7,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 11,12</t>
+          <t>-16,67; 1,19</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 16,2</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 14,21</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-13,08; 3,75</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>10,93%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>-8,3%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7,96%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-5,42%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,11; 27,6</t>
+          <t>10,47; 51,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-6,72; 17,59</t>
+          <t>1,38; 40,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,21; 16,57</t>
+          <t>-17,55; 24,13</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 15,21</t>
+          <t>-7,16; 8,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,39; 18,94</t>
+          <t>-6,57; 8,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 14,19</t>
+          <t>-17,73; 1,17</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 20,94</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 18,33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-15,55; 4,58</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-4,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>-9,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-4,63</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,27</t>
+          <t>-3,76</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-3,34</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,38</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,01</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,91</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,81; 7,24</t>
+          <t>-24,28; 14,51</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 12,79</t>
+          <t>-18,83; 17,69</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 4,45</t>
+          <t>-27,68; 9,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 4,97</t>
+          <t>-14,94; 3,96</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,31; 4,16</t>
+          <t>-13,49; 4,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 7,33</t>
+          <t>-12,54; 4,36</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-19,27; 7,41</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 10,78</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-17,2; 7,93</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>-6,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-1,04%</t>
+          <t>-0,78%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>-11,91%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,16%</t>
+          <t>-4,81%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-4,83%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-1,09%</t>
+          <t>-3,47%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-6,36%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,38%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-6,98%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-22,96; 9,32</t>
+          <t>-29,87; 21,88</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 17,11</t>
+          <t>-22,62; 26,79</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 4,84</t>
+          <t>-33,13; 13,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 5,29</t>
+          <t>-15,56; 4,17</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 4,89</t>
+          <t>-13,84; 4,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-8,85; 8,6</t>
+          <t>-12,66; 4,55</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 9,41</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-14,17; 14,1</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-19,52; 9,73</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-7,95</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-4,31</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,82</t>
+          <t>-3,25</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>-8,07</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-2,71</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,64</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-6,54</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -0,41</t>
+          <t>-19,88; 7,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-6,82; 6,52</t>
+          <t>-9,64; 12,3</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 7,25</t>
+          <t>-16,81; 7,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 7,28</t>
+          <t>-11,58; 11,21</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 2,8</t>
+          <t>-14,28; 7,7</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 4,57</t>
+          <t>-23,63; 3,79</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-10,9; 4,71</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-9,61; 6,17</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-16,65; 1,95</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>-5,5%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>0,12%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>-4,65%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>-0,62%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>-8,64%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-2,91%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-1,77%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-7,03%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-18,38; -0,47</t>
+          <t>-20,54; 7,38</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-6,97; 7,2</t>
+          <t>-10,06; 14,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-6,43; 8,08</t>
+          <t>-17,69; 9,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 8,08</t>
+          <t>-11,98; 12,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 2,95</t>
+          <t>-15,17; 8,35</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 4,96</t>
+          <t>-25,49; 4,27</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-11,33; 5,26</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-10,21; 6,97</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-17,55; 1,99</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>5,6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>3,36</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,49</t>
+          <t>-4,21</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,32</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>-6,01</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-5,54</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 7,77</t>
+          <t>-1,92; 14,99</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 7,16</t>
+          <t>-3,8; 12,35</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,98</t>
+          <t>-12,46; 4,85</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 4,11</t>
+          <t>-4,23; 5,37</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,62</t>
+          <t>-8,18; 1,99</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,06</t>
+          <t>-11,46; -0,36</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 7,94</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 5,03</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-10,85; -0,05</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>-5,56%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>-3,21%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>-6,82%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3,4%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-6,72%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 10,25</t>
+          <t>-2,38; 21,96</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 9,34</t>
+          <t>-4,71; 17,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,26; 8,18</t>
+          <t>-15,66; 6,84</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,72</t>
+          <t>-4,74; 6,29</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,77</t>
+          <t>-8,83; 2,36</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 4,95</t>
+          <t>-12,73; -0,44</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 10,14</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-5,18; 6,37</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-12,94; -0,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
